--- a/unityApi.xlsx
+++ b/unityApi.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="155">
   <si>
     <t>url</t>
   </si>
@@ -509,6 +509,9 @@
   </si>
   <si>
     <t>pin,re_pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -913,7 +916,7 @@
   <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
